--- a/BienBanLamViec.xlsx
+++ b/BienBanLamViec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dai_Hoc\TTCN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\WebSiteDaiHocDienTu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD82E2CA-9ADC-40A1-8A52-904DFBD5ED11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489C8283-A435-43DA-B898-49246B9DDD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="782" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mẫu kế hoạch " sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="113">
   <si>
     <t>Kế hoạch làm việc nhóm
  Nhóm: ...... 
@@ -373,6 +373,9 @@
   </si>
   <si>
     <t>24/03/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thời gian – time: 20h </t>
   </si>
 </sst>
 </file>
@@ -382,7 +385,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="32">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -478,12 +481,77 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Cambria"/>
       <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Cambria"/>
       <family val="1"/>
     </font>
@@ -671,7 +739,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -762,64 +830,236 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1041,7 +1281,7 @@
   </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1059,23 +1299,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.5">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="43"/>
     </row>
     <row r="2" spans="1:9" ht="77.5">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="37" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1101,10 +1341,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="26">
-      <c r="A3" s="58">
+      <c r="A3" s="36">
         <v>1</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="38" t="s">
         <v>107</v>
       </c>
       <c r="C3" s="5"/>
@@ -1123,7 +1363,7 @@
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="39" t="s">
         <v>108</v>
       </c>
       <c r="C4" s="6"/>
@@ -1142,7 +1382,7 @@
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="39" t="s">
         <v>109</v>
       </c>
       <c r="C5" s="6"/>
@@ -1164,13 +1404,13 @@
       <c r="B6" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="40" t="s">
         <v>104</v>
       </c>
       <c r="F6" s="6"/>
@@ -1187,13 +1427,13 @@
       <c r="B7" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="62" t="s">
+      <c r="E7" s="40" t="s">
         <v>104</v>
       </c>
       <c r="F7" s="6"/>
@@ -1348,621 +1588,619 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" customWidth="1"/>
-    <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="30.90625" customWidth="1"/>
-    <col min="4" max="4" width="25.7265625" customWidth="1"/>
-    <col min="5" max="5" width="30.90625" customWidth="1"/>
-    <col min="6" max="6" width="36.36328125" customWidth="1"/>
-    <col min="7" max="7" width="60.08984375" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" style="65" customWidth="1"/>
+    <col min="2" max="2" width="5" style="65" customWidth="1"/>
+    <col min="3" max="3" width="30.90625" style="65" customWidth="1"/>
+    <col min="4" max="4" width="25.7265625" style="65" customWidth="1"/>
+    <col min="5" max="5" width="30.90625" style="65" customWidth="1"/>
+    <col min="6" max="6" width="36.36328125" style="65" customWidth="1"/>
+    <col min="7" max="7" width="60.08984375" style="65" customWidth="1"/>
+    <col min="8" max="16384" width="12.6328125" style="65"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A1" s="54"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="A1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A2" s="12"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A3" s="12"/>
-      <c r="B3" s="56" t="s">
+      <c r="A3" s="64"/>
+      <c r="B3" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="113" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A5" s="12"/>
-      <c r="B5" s="56" t="s">
+      <c r="A5" s="64"/>
+      <c r="B5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A6" s="12"/>
-      <c r="B6" s="56" t="s">
+      <c r="A6" s="64"/>
+      <c r="B6" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="52" t="s">
+      <c r="A7" s="64"/>
+      <c r="B7" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="64"/>
+      <c r="B8" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="14">
+      <c r="A9" s="64"/>
+      <c r="B9" s="69">
         <v>1</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
     </row>
     <row r="10" spans="1:9" ht="14.5">
-      <c r="A10" s="12"/>
-      <c r="B10" s="14">
+      <c r="A10" s="64"/>
+      <c r="B10" s="69">
         <v>2</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
     </row>
     <row r="11" spans="1:9" ht="14.5">
-      <c r="A11" s="12"/>
-      <c r="B11" s="14">
+      <c r="A11" s="64"/>
+      <c r="B11" s="69">
         <v>3</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
     </row>
     <row r="12" spans="1:9" ht="14.5">
-      <c r="A12" s="12"/>
-      <c r="B12" s="53" t="s">
+      <c r="A12" s="64"/>
+      <c r="B12" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
     </row>
     <row r="13" spans="1:9" ht="28.5">
-      <c r="A13" s="12"/>
-      <c r="B13" s="20" t="s">
+      <c r="A13" s="64"/>
+      <c r="B13" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="51" t="s">
+      <c r="F13" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="41"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
     </row>
     <row r="14" spans="1:9" ht="14.5">
-      <c r="A14" s="12"/>
-      <c r="B14" s="22">
+      <c r="A14" s="64"/>
+      <c r="B14" s="77">
         <v>1</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17" t="s">
+      <c r="C14" s="70"/>
+      <c r="D14" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="50" t="s">
+      <c r="E14" s="70"/>
+      <c r="F14" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="G14" s="41"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
     </row>
     <row r="15" spans="1:9" ht="14.5">
-      <c r="A15" s="12"/>
-      <c r="B15" s="22">
+      <c r="A15" s="64"/>
+      <c r="B15" s="77">
         <v>2</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17" t="s">
+      <c r="C15" s="70"/>
+      <c r="D15" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="50" t="s">
+      <c r="E15" s="70"/>
+      <c r="F15" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="G15" s="41"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
     </row>
     <row r="16" spans="1:9" ht="14.5">
-      <c r="A16" s="12"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
     </row>
     <row r="17" spans="1:9" ht="14.5">
-      <c r="A17" s="12"/>
-      <c r="B17" s="44" t="s">
+      <c r="A17" s="64"/>
+      <c r="B17" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
     </row>
     <row r="18" spans="1:9" ht="28.5">
-      <c r="A18" s="12"/>
-      <c r="B18" s="20" t="s">
+      <c r="A18" s="64"/>
+      <c r="B18" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="41"/>
-      <c r="F18" s="21" t="s">
+      <c r="E18" s="43"/>
+      <c r="F18" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="24"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="81"/>
     </row>
     <row r="19" spans="1:9" ht="28.5">
-      <c r="A19" s="12"/>
-      <c r="B19" s="22">
+      <c r="A19" s="64"/>
+      <c r="B19" s="77">
         <v>1</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="50" t="s">
+      <c r="D19" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="17" t="s">
+      <c r="E19" s="43"/>
+      <c r="F19" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="24"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="81"/>
     </row>
     <row r="20" spans="1:9" ht="42.5">
-      <c r="A20" s="12"/>
-      <c r="B20" s="22">
+      <c r="A20" s="64"/>
+      <c r="B20" s="77">
         <v>2</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="E20" s="41"/>
-      <c r="F20" s="36" t="s">
+      <c r="E20" s="43"/>
+      <c r="F20" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="24"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="81"/>
     </row>
     <row r="21" spans="1:9" ht="15.5">
-      <c r="A21" s="12"/>
-      <c r="B21" s="22">
+      <c r="A21" s="64"/>
+      <c r="B21" s="77">
         <v>3</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="24"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="81"/>
     </row>
     <row r="22" spans="1:9" ht="15.5">
-      <c r="A22" s="12"/>
-      <c r="B22" s="22">
+      <c r="A22" s="64"/>
+      <c r="B22" s="77">
         <v>4</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="24"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="81"/>
     </row>
     <row r="23" spans="1:9" ht="15.5">
-      <c r="A23" s="12"/>
-      <c r="B23" s="44" t="s">
+      <c r="A23" s="64"/>
+      <c r="B23" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="24"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="81"/>
     </row>
     <row r="24" spans="1:9" ht="14.5">
-      <c r="A24" s="12"/>
-      <c r="B24" s="20" t="s">
+      <c r="A24" s="64"/>
+      <c r="B24" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="21"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
     </row>
     <row r="25" spans="1:9" ht="14.5">
-      <c r="A25" s="12"/>
-      <c r="B25" s="22">
+      <c r="A25" s="64"/>
+      <c r="B25" s="77">
         <v>1</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="E25" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="F25" s="36" t="s">
+      <c r="F25" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
     </row>
     <row r="26" spans="1:9" ht="14.5">
-      <c r="A26" s="12"/>
-      <c r="B26" s="22">
+      <c r="A26" s="64"/>
+      <c r="B26" s="77">
         <v>2</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
     </row>
     <row r="27" spans="1:9" ht="14.5">
-      <c r="A27" s="12"/>
-      <c r="B27" s="22">
+      <c r="A27" s="64"/>
+      <c r="B27" s="77">
         <v>3</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
     </row>
     <row r="28" spans="1:9" ht="14.5">
-      <c r="A28" s="12"/>
-      <c r="B28" s="22">
+      <c r="A28" s="64"/>
+      <c r="B28" s="77">
         <v>4</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
     </row>
     <row r="29" spans="1:9" ht="14.5">
-      <c r="A29" s="12"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
+      <c r="A29" s="64"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
     </row>
     <row r="30" spans="1:9" ht="14.5">
-      <c r="A30" s="12"/>
-      <c r="B30" s="44" t="s">
+      <c r="A30" s="64"/>
+      <c r="B30" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
     </row>
     <row r="31" spans="1:9" ht="28.5">
-      <c r="A31" s="12"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="21" t="s">
+      <c r="A31" s="64"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="21" t="s">
+      <c r="E31" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="F31" s="21" t="s">
+      <c r="F31" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="G31" s="21" t="s">
+      <c r="G31" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
     </row>
     <row r="32" spans="1:9" ht="14.5">
-      <c r="A32" s="12"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
+      <c r="A32" s="64"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
     </row>
     <row r="33" spans="1:9" ht="14.5">
-      <c r="A33" s="12"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
+      <c r="A33" s="64"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="64"/>
     </row>
     <row r="34" spans="1:9" ht="14.5">
-      <c r="A34" s="12"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
+      <c r="A34" s="64"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
     </row>
     <row r="35" spans="1:9" ht="14.5">
-      <c r="A35" s="12"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
+      <c r="A35" s="64"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
     </row>
     <row r="36" spans="1:9" ht="14.5">
-      <c r="A36" s="12"/>
-      <c r="B36" s="45" t="s">
+      <c r="A36" s="64"/>
+      <c r="B36" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="64"/>
     </row>
     <row r="37" spans="1:9" ht="14.5">
-      <c r="A37" s="12"/>
-      <c r="B37" s="48" t="s">
+      <c r="A37" s="64"/>
+      <c r="B37" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="64"/>
     </row>
     <row r="38" spans="1:9" ht="14.5">
-      <c r="A38" s="12"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="35" t="s">
+      <c r="A38" s="64"/>
+      <c r="B38" s="95"/>
+      <c r="C38" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="D38" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="E38" s="35" t="s">
+      <c r="E38" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="F38" s="35" t="s">
+      <c r="F38" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="G38" s="35"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
+      <c r="G38" s="96"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="64"/>
     </row>
     <row r="39" spans="1:9" ht="14.5">
-      <c r="A39" s="12"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="33">
+      <c r="A39" s="64"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="92">
         <v>2</v>
       </c>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="92"/>
+      <c r="G39" s="92"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B12:G12"/>
@@ -1974,11 +2212,12 @@
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1991,1876 +2230,614 @@
   </sheetPr>
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" customWidth="1"/>
-    <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="30.90625" customWidth="1"/>
-    <col min="4" max="4" width="25.7265625" customWidth="1"/>
-    <col min="5" max="5" width="30.90625" customWidth="1"/>
-    <col min="6" max="6" width="36.36328125" customWidth="1"/>
-    <col min="7" max="7" width="60.08984375" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" style="109" customWidth="1"/>
+    <col min="2" max="2" width="5" style="109" customWidth="1"/>
+    <col min="3" max="3" width="30.90625" style="109" customWidth="1"/>
+    <col min="4" max="4" width="25.7265625" style="109" customWidth="1"/>
+    <col min="5" max="5" width="30.90625" style="109" customWidth="1"/>
+    <col min="6" max="6" width="36.36328125" style="109" customWidth="1"/>
+    <col min="7" max="7" width="60.08984375" style="109" customWidth="1"/>
+    <col min="8" max="16384" width="12.6328125" style="109"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A1" s="54"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="A1" s="105"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A2" s="12"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A3" s="12"/>
-      <c r="B3" s="56" t="s">
+      <c r="A3" s="108"/>
+      <c r="B3" s="113" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="56" t="s">
+      <c r="A4" s="108"/>
+      <c r="B4" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A5" s="12"/>
-      <c r="B5" s="56" t="s">
+      <c r="A5" s="108"/>
+      <c r="B5" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A6" s="12"/>
-      <c r="B6" s="56" t="s">
+      <c r="A6" s="108"/>
+      <c r="B6" s="113" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="52" t="s">
+      <c r="A7" s="108"/>
+      <c r="B7" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="108"/>
+      <c r="B8" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="14">
+      <c r="A9" s="108"/>
+      <c r="B9" s="118">
         <v>1</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18" t="s">
+      <c r="D9" s="120"/>
+      <c r="E9" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
     </row>
     <row r="10" spans="1:9" ht="14.5">
-      <c r="A10" s="12"/>
-      <c r="B10" s="14">
+      <c r="A10" s="108"/>
+      <c r="B10" s="118">
         <v>2</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18" t="s">
+      <c r="D10" s="120"/>
+      <c r="E10" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
     </row>
     <row r="11" spans="1:9" ht="14.5">
-      <c r="A11" s="12"/>
-      <c r="B11" s="14">
+      <c r="A11" s="108"/>
+      <c r="B11" s="118">
         <v>3</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18" t="s">
+      <c r="D11" s="120"/>
+      <c r="E11" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
     </row>
     <row r="12" spans="1:9" ht="14.5">
-      <c r="A12" s="12"/>
-      <c r="B12" s="53" t="s">
+      <c r="A12" s="108"/>
+      <c r="B12" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
     </row>
     <row r="13" spans="1:9" ht="28.5">
-      <c r="A13" s="12"/>
-      <c r="B13" s="20" t="s">
+      <c r="A13" s="108"/>
+      <c r="B13" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="51" t="s">
+      <c r="F13" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="41"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
     </row>
     <row r="14" spans="1:9" ht="14.5">
-      <c r="A14" s="12"/>
-      <c r="B14" s="22">
+      <c r="A14" s="108"/>
+      <c r="B14" s="124">
         <v>1</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
     </row>
     <row r="15" spans="1:9" ht="14.5">
-      <c r="A15" s="12"/>
-      <c r="B15" s="22">
+      <c r="A15" s="108"/>
+      <c r="B15" s="124">
         <v>2</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
     </row>
     <row r="16" spans="1:9" ht="14.5">
-      <c r="A16" s="12"/>
-      <c r="B16" s="22">
+      <c r="A16" s="108"/>
+      <c r="B16" s="124">
         <v>3</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
     </row>
     <row r="17" spans="1:9" ht="14.5">
-      <c r="A17" s="12"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
+      <c r="A17" s="108"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="108"/>
     </row>
     <row r="18" spans="1:9" ht="14.5">
-      <c r="A18" s="12"/>
-      <c r="B18" s="44" t="s">
+      <c r="A18" s="108"/>
+      <c r="B18" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="126"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="108"/>
     </row>
     <row r="19" spans="1:9" ht="28.5">
-      <c r="A19" s="12"/>
-      <c r="B19" s="20" t="s">
+      <c r="A19" s="108"/>
+      <c r="B19" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="51" t="s">
+      <c r="D19" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="21" t="s">
+      <c r="E19" s="99"/>
+      <c r="F19" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="24"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="127"/>
     </row>
     <row r="20" spans="1:9" ht="15.5">
-      <c r="A20" s="12"/>
-      <c r="B20" s="22">
+      <c r="A20" s="108"/>
+      <c r="B20" s="124">
         <v>1</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="125" t="s">
         <v>92</v>
       </c>
-      <c r="E20" s="41"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="24"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="127"/>
     </row>
     <row r="21" spans="1:9" ht="15.5">
-      <c r="A21" s="12"/>
-      <c r="B21" s="22">
+      <c r="A21" s="108"/>
+      <c r="B21" s="124">
         <v>2</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="125" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="41"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="24"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="127"/>
     </row>
     <row r="22" spans="1:9" ht="15.5">
-      <c r="A22" s="12"/>
-      <c r="B22" s="22">
+      <c r="A22" s="108"/>
+      <c r="B22" s="124">
         <v>3</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="24"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="127"/>
     </row>
     <row r="23" spans="1:9" ht="15.5">
-      <c r="A23" s="12"/>
-      <c r="B23" s="22">
+      <c r="A23" s="108"/>
+      <c r="B23" s="124">
         <v>4</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="24"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="127"/>
     </row>
     <row r="24" spans="1:9" ht="15.5">
-      <c r="A24" s="12"/>
-      <c r="B24" s="44" t="s">
+      <c r="A24" s="108"/>
+      <c r="B24" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="24"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="127"/>
     </row>
     <row r="25" spans="1:9" ht="14.5">
-      <c r="A25" s="12"/>
-      <c r="B25" s="20" t="s">
+      <c r="A25" s="108"/>
+      <c r="B25" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="101" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="108"/>
     </row>
     <row r="26" spans="1:9" ht="14.5">
-      <c r="A26" s="12"/>
-      <c r="B26" s="22">
+      <c r="A26" s="108"/>
+      <c r="B26" s="124">
         <v>1</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="108"/>
     </row>
     <row r="27" spans="1:9" ht="14.5">
-      <c r="A27" s="12"/>
-      <c r="B27" s="22">
+      <c r="A27" s="108"/>
+      <c r="B27" s="124">
         <v>2</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="108"/>
+      <c r="I27" s="108"/>
     </row>
     <row r="28" spans="1:9" ht="14.5">
-      <c r="A28" s="12"/>
-      <c r="B28" s="22">
+      <c r="A28" s="108"/>
+      <c r="B28" s="124">
         <v>3</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="129"/>
+      <c r="H28" s="108"/>
+      <c r="I28" s="108"/>
     </row>
     <row r="29" spans="1:9" ht="14.5">
-      <c r="A29" s="12"/>
-      <c r="B29" s="22">
+      <c r="A29" s="108"/>
+      <c r="B29" s="124">
         <v>4</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="82"/>
+      <c r="H29" s="108"/>
+      <c r="I29" s="108"/>
     </row>
     <row r="30" spans="1:9" ht="14.5">
-      <c r="A30" s="12"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
+      <c r="A30" s="108"/>
+      <c r="B30" s="124"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="H30" s="108"/>
+      <c r="I30" s="108"/>
     </row>
     <row r="31" spans="1:9" ht="14.5">
-      <c r="A31" s="12"/>
-      <c r="B31" s="44" t="s">
+      <c r="A31" s="108"/>
+      <c r="B31" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="108"/>
+      <c r="I31" s="108"/>
     </row>
     <row r="32" spans="1:9" ht="28.5">
-      <c r="A32" s="12"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="21" t="s">
+      <c r="A32" s="108"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="E32" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="F32" s="21" t="s">
+      <c r="F32" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="G32" s="21" t="s">
+      <c r="G32" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
+      <c r="H32" s="108"/>
+      <c r="I32" s="108"/>
     </row>
     <row r="33" spans="1:9" ht="14.5">
-      <c r="A33" s="12"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
+      <c r="A33" s="108"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="104"/>
+      <c r="G33" s="104"/>
+      <c r="H33" s="108"/>
+      <c r="I33" s="108"/>
     </row>
     <row r="34" spans="1:9" ht="14.5">
-      <c r="A34" s="12"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
+      <c r="A34" s="108"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="104"/>
+      <c r="H34" s="108"/>
+      <c r="I34" s="108"/>
     </row>
     <row r="35" spans="1:9" ht="14.5">
-      <c r="A35" s="12"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
+      <c r="A35" s="108"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="104"/>
+      <c r="H35" s="108"/>
+      <c r="I35" s="108"/>
     </row>
     <row r="36" spans="1:9" ht="14.5">
-      <c r="A36" s="12"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
+      <c r="A36" s="108"/>
+      <c r="B36" s="130"/>
+      <c r="C36" s="131"/>
+      <c r="D36" s="132"/>
+      <c r="E36" s="132"/>
+      <c r="F36" s="132"/>
+      <c r="G36" s="132"/>
+      <c r="H36" s="108"/>
+      <c r="I36" s="108"/>
     </row>
     <row r="37" spans="1:9" ht="14.5">
-      <c r="A37" s="12"/>
-      <c r="B37" s="45" t="s">
+      <c r="A37" s="108"/>
+      <c r="B37" s="133" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
+      <c r="C37" s="111"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="111"/>
+      <c r="F37" s="111"/>
+      <c r="G37" s="112"/>
+      <c r="H37" s="108"/>
+      <c r="I37" s="108"/>
     </row>
     <row r="38" spans="1:9" ht="14.5">
-      <c r="A38" s="12"/>
-      <c r="B38" s="48" t="s">
+      <c r="A38" s="108"/>
+      <c r="B38" s="134" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="116"/>
+      <c r="F38" s="116"/>
+      <c r="G38" s="117"/>
+      <c r="H38" s="108"/>
+      <c r="I38" s="108"/>
     </row>
     <row r="39" spans="1:9" ht="14.5">
-      <c r="A39" s="12"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="35" t="s">
+      <c r="A39" s="108"/>
+      <c r="B39" s="135"/>
+      <c r="C39" s="136" t="s">
         <v>72</v>
       </c>
-      <c r="D39" s="35" t="s">
+      <c r="D39" s="136" t="s">
         <v>73</v>
       </c>
-      <c r="E39" s="35" t="s">
+      <c r="E39" s="136" t="s">
         <v>74</v>
       </c>
-      <c r="F39" s="35" t="s">
+      <c r="F39" s="136" t="s">
         <v>75</v>
       </c>
-      <c r="G39" s="35"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
+      <c r="G39" s="136"/>
+      <c r="H39" s="108"/>
+      <c r="I39" s="108"/>
     </row>
     <row r="40" spans="1:9" ht="14.5">
-      <c r="A40" s="12"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="33">
+      <c r="A40" s="108"/>
+      <c r="B40" s="130"/>
+      <c r="C40" s="131"/>
+      <c r="D40" s="132">
         <v>2</v>
       </c>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD6887E-E782-4475-B843-48CBA4AAB7DD}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:I39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="3.7265625" customWidth="1"/>
-    <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="30.90625" customWidth="1"/>
-    <col min="4" max="4" width="25.7265625" customWidth="1"/>
-    <col min="5" max="5" width="30.90625" customWidth="1"/>
-    <col min="6" max="6" width="36.36328125" customWidth="1"/>
-    <col min="7" max="7" width="60.08984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A1" s="54"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A2" s="12"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A3" s="12"/>
-      <c r="B3" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A5" s="12"/>
-      <c r="B5" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A6" s="12"/>
-      <c r="B6" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="14">
-        <v>1</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-    </row>
-    <row r="10" spans="1:9" ht="14.5">
-      <c r="A10" s="12"/>
-      <c r="B10" s="14">
-        <v>2</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-    </row>
-    <row r="11" spans="1:9" ht="14.5">
-      <c r="A11" s="12"/>
-      <c r="B11" s="14">
-        <v>3</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-    </row>
-    <row r="12" spans="1:9" ht="14.5">
-      <c r="A12" s="12"/>
-      <c r="B12" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-    </row>
-    <row r="13" spans="1:9" ht="28.5">
-      <c r="A13" s="12"/>
-      <c r="B13" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="41"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-    </row>
-    <row r="14" spans="1:9" ht="14.5">
-      <c r="A14" s="12"/>
-      <c r="B14" s="22">
-        <v>1</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-    </row>
-    <row r="15" spans="1:9" ht="14.5">
-      <c r="A15" s="12"/>
-      <c r="B15" s="22">
-        <v>2</v>
-      </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-    </row>
-    <row r="16" spans="1:9" ht="14.5">
-      <c r="A16" s="12"/>
-      <c r="B16" s="22">
-        <v>3</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-    </row>
-    <row r="17" spans="1:9" ht="14.5">
-      <c r="A17" s="12"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-    </row>
-    <row r="18" spans="1:9" ht="14.5">
-      <c r="A18" s="12"/>
-      <c r="B18" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-    </row>
-    <row r="19" spans="1:9" ht="28.5">
-      <c r="A19" s="12"/>
-      <c r="B19" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="24"/>
-    </row>
-    <row r="20" spans="1:9" ht="28.5">
-      <c r="A20" s="12"/>
-      <c r="B20" s="22">
-        <v>1</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="E20" s="41"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="24"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.5">
-      <c r="A21" s="12"/>
-      <c r="B21" s="22">
-        <v>2</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="E21" s="41"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="24"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.5">
-      <c r="A22" s="12"/>
-      <c r="B22" s="22">
-        <v>3</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="24"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.5">
-      <c r="A23" s="12"/>
-      <c r="B23" s="22">
-        <v>4</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="24"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.5">
-      <c r="A24" s="12"/>
-      <c r="B24" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="24"/>
-    </row>
-    <row r="25" spans="1:9" ht="14.5">
-      <c r="A25" s="12"/>
-      <c r="B25" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-    </row>
-    <row r="26" spans="1:9" ht="14.5">
-      <c r="A26" s="12"/>
-      <c r="B26" s="22">
-        <v>1</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-    </row>
-    <row r="27" spans="1:9" ht="14.5">
-      <c r="A27" s="12"/>
-      <c r="B27" s="22">
-        <v>2</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-    </row>
-    <row r="28" spans="1:9" ht="14.5">
-      <c r="A28" s="12"/>
-      <c r="B28" s="22">
-        <v>3</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="G28" s="26"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-    </row>
-    <row r="29" spans="1:9" ht="14.5">
-      <c r="A29" s="12"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-    </row>
-    <row r="30" spans="1:9" ht="14.5">
-      <c r="A30" s="12"/>
-      <c r="B30" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-    </row>
-    <row r="31" spans="1:9" ht="28.5">
-      <c r="A31" s="12"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-    </row>
-    <row r="32" spans="1:9" ht="14.5">
-      <c r="A32" s="12"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-    </row>
-    <row r="33" spans="1:9" ht="14.5">
-      <c r="A33" s="12"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-    </row>
-    <row r="34" spans="1:9" ht="14.5">
-      <c r="A34" s="12"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-    </row>
-    <row r="35" spans="1:9" ht="14.5">
-      <c r="A35" s="12"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-    </row>
-    <row r="36" spans="1:9" ht="14.5">
-      <c r="A36" s="12"/>
-      <c r="B36" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-    </row>
-    <row r="37" spans="1:9" ht="14.5">
-      <c r="A37" s="12"/>
-      <c r="B37" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-    </row>
-    <row r="38" spans="1:9" ht="14.5">
-      <c r="A38" s="12"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="E38" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="F38" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="G38" s="35"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-    </row>
-    <row r="39" spans="1:9" ht="14.5">
-      <c r="A39" s="12"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="33">
-        <v>2</v>
-      </c>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51602AB-7E74-4E62-BA60-BB6F9C320197}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:I40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23:E23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="3.7265625" customWidth="1"/>
-    <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="30.90625" customWidth="1"/>
-    <col min="4" max="4" width="25.7265625" customWidth="1"/>
-    <col min="5" max="5" width="30.90625" customWidth="1"/>
-    <col min="6" max="6" width="36.36328125" customWidth="1"/>
-    <col min="7" max="7" width="60.08984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A1" s="54"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A2" s="12"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A3" s="12"/>
-      <c r="B3" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A5" s="12"/>
-      <c r="B5" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A6" s="12"/>
-      <c r="B6" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="14">
-        <v>1</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-    </row>
-    <row r="10" spans="1:9" ht="14.5">
-      <c r="A10" s="12"/>
-      <c r="B10" s="14">
-        <v>2</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-    </row>
-    <row r="11" spans="1:9" ht="14.5">
-      <c r="A11" s="12"/>
-      <c r="B11" s="14">
-        <v>3</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-    </row>
-    <row r="12" spans="1:9" ht="14.5">
-      <c r="A12" s="12"/>
-      <c r="B12" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-    </row>
-    <row r="13" spans="1:9" ht="28.5">
-      <c r="A13" s="12"/>
-      <c r="B13" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="41"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-    </row>
-    <row r="14" spans="1:9" ht="14.5">
-      <c r="A14" s="12"/>
-      <c r="B14" s="22">
-        <v>1</v>
-      </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-    </row>
-    <row r="15" spans="1:9" ht="14.5">
-      <c r="A15" s="12"/>
-      <c r="B15" s="22">
-        <v>2</v>
-      </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-    </row>
-    <row r="16" spans="1:9" ht="14.5">
-      <c r="A16" s="12"/>
-      <c r="B16" s="22">
-        <v>3</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-    </row>
-    <row r="17" spans="1:9" ht="14.5">
-      <c r="A17" s="12"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-    </row>
-    <row r="18" spans="1:9" ht="14.5">
-      <c r="A18" s="12"/>
-      <c r="B18" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-    </row>
-    <row r="19" spans="1:9" ht="28.5">
-      <c r="A19" s="12"/>
-      <c r="B19" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="24"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.5">
-      <c r="A20" s="12"/>
-      <c r="B20" s="22">
-        <v>1</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="24"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.5">
-      <c r="A21" s="12"/>
-      <c r="B21" s="22">
-        <v>2</v>
-      </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="24"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.5">
-      <c r="A22" s="12"/>
-      <c r="B22" s="22">
-        <v>3</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="24"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.5">
-      <c r="A23" s="12"/>
-      <c r="B23" s="22">
-        <v>4</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="24"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.5">
-      <c r="A24" s="12"/>
-      <c r="B24" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="24"/>
-    </row>
-    <row r="25" spans="1:9" ht="14.5">
-      <c r="A25" s="12"/>
-      <c r="B25" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-    </row>
-    <row r="26" spans="1:9" ht="14.5">
-      <c r="A26" s="12"/>
-      <c r="B26" s="22">
-        <v>1</v>
-      </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-    </row>
-    <row r="27" spans="1:9" ht="14.5">
-      <c r="A27" s="12"/>
-      <c r="B27" s="22">
-        <v>2</v>
-      </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-    </row>
-    <row r="28" spans="1:9" ht="14.5">
-      <c r="A28" s="12"/>
-      <c r="B28" s="22">
-        <v>3</v>
-      </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-    </row>
-    <row r="29" spans="1:9" ht="14.5">
-      <c r="A29" s="12"/>
-      <c r="B29" s="22">
-        <v>4</v>
-      </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-    </row>
-    <row r="30" spans="1:9" ht="14.5">
-      <c r="A30" s="12"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-    </row>
-    <row r="31" spans="1:9" ht="14.5">
-      <c r="A31" s="12"/>
-      <c r="B31" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-    </row>
-    <row r="32" spans="1:9" ht="28.5">
-      <c r="A32" s="12"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-    </row>
-    <row r="33" spans="1:9" ht="14.5">
-      <c r="A33" s="12"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-    </row>
-    <row r="34" spans="1:9" ht="14.5">
-      <c r="A34" s="12"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-    </row>
-    <row r="35" spans="1:9" ht="14.5">
-      <c r="A35" s="12"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-    </row>
-    <row r="36" spans="1:9" ht="14.5">
-      <c r="A36" s="12"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-    </row>
-    <row r="37" spans="1:9" ht="14.5">
-      <c r="A37" s="12"/>
-      <c r="B37" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-    </row>
-    <row r="38" spans="1:9" ht="14.5">
-      <c r="A38" s="12"/>
-      <c r="B38" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-    </row>
-    <row r="39" spans="1:9" ht="14.5">
-      <c r="A39" s="12"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D39" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="E39" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="F39" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="G39" s="35"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-    </row>
-    <row r="40" spans="1:9" ht="14.5">
-      <c r="A40" s="12"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="33">
-        <v>2</v>
-      </c>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
+      <c r="E40" s="132"/>
+      <c r="F40" s="132"/>
+      <c r="G40" s="132"/>
+      <c r="H40" s="108"/>
+      <c r="I40" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -3892,6 +2869,1266 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD6887E-E782-4475-B843-48CBA4AAB7DD}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:I39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="3.7265625" style="109" customWidth="1"/>
+    <col min="2" max="2" width="5" style="109" customWidth="1"/>
+    <col min="3" max="3" width="30.90625" style="109" customWidth="1"/>
+    <col min="4" max="4" width="25.7265625" style="109" customWidth="1"/>
+    <col min="5" max="5" width="30.90625" style="109" customWidth="1"/>
+    <col min="6" max="6" width="36.36328125" style="109" customWidth="1"/>
+    <col min="7" max="7" width="60.08984375" style="109" customWidth="1"/>
+    <col min="8" max="16384" width="12.6328125" style="109"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A1" s="105"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A2" s="108"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A3" s="108"/>
+      <c r="B3" s="113" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A4" s="108"/>
+      <c r="B4" s="113" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A5" s="108"/>
+      <c r="B5" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A6" s="108"/>
+      <c r="B6" s="113" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A7" s="108"/>
+      <c r="B7" s="115" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A8" s="108"/>
+      <c r="B8" s="118" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="119" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="119" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="119" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="119" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A9" s="108"/>
+      <c r="B9" s="118">
+        <v>1</v>
+      </c>
+      <c r="C9" s="82" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="120" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="120"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.5">
+      <c r="A10" s="108"/>
+      <c r="B10" s="118">
+        <v>2</v>
+      </c>
+      <c r="C10" s="82" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="120" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="120"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.5">
+      <c r="A11" s="108"/>
+      <c r="B11" s="118">
+        <v>3</v>
+      </c>
+      <c r="C11" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="120" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="120"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.5">
+      <c r="A12" s="108"/>
+      <c r="B12" s="121" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+    </row>
+    <row r="13" spans="1:9" ht="28.5">
+      <c r="A13" s="108"/>
+      <c r="B13" s="122" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="101" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="101" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="101" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="123" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="99"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.5">
+      <c r="A14" s="108"/>
+      <c r="B14" s="124">
+        <v>1</v>
+      </c>
+      <c r="C14" s="82" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="82" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="82"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.5">
+      <c r="A15" s="108"/>
+      <c r="B15" s="124">
+        <v>2</v>
+      </c>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
+    </row>
+    <row r="16" spans="1:9" ht="14.5">
+      <c r="A16" s="108"/>
+      <c r="B16" s="124">
+        <v>3</v>
+      </c>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.5">
+      <c r="A17" s="108"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="108"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.5">
+      <c r="A18" s="108"/>
+      <c r="B18" s="97" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="126"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="108"/>
+    </row>
+    <row r="19" spans="1:9" ht="28.5">
+      <c r="A19" s="108"/>
+      <c r="B19" s="122" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="123" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="99"/>
+      <c r="F19" s="101" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="108"/>
+      <c r="I19" s="127"/>
+    </row>
+    <row r="20" spans="1:9" ht="28.5">
+      <c r="A20" s="108"/>
+      <c r="B20" s="124">
+        <v>1</v>
+      </c>
+      <c r="C20" s="82" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="125" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="99"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="127"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.5">
+      <c r="A21" s="108"/>
+      <c r="B21" s="124">
+        <v>2</v>
+      </c>
+      <c r="C21" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="125" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="99"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="127"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.5">
+      <c r="A22" s="108"/>
+      <c r="B22" s="124">
+        <v>3</v>
+      </c>
+      <c r="C22" s="82"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="127"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.5">
+      <c r="A23" s="108"/>
+      <c r="B23" s="124">
+        <v>4</v>
+      </c>
+      <c r="C23" s="82"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="127"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.5">
+      <c r="A24" s="108"/>
+      <c r="B24" s="97" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="127"/>
+    </row>
+    <row r="25" spans="1:9" ht="14.5">
+      <c r="A25" s="108"/>
+      <c r="B25" s="122" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="101" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="101" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="101"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="108"/>
+    </row>
+    <row r="26" spans="1:9" ht="14.5">
+      <c r="A26" s="108"/>
+      <c r="B26" s="124">
+        <v>1</v>
+      </c>
+      <c r="C26" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="108"/>
+    </row>
+    <row r="27" spans="1:9" ht="14.5">
+      <c r="A27" s="108"/>
+      <c r="B27" s="124">
+        <v>2</v>
+      </c>
+      <c r="C27" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="82" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="108"/>
+      <c r="I27" s="108"/>
+    </row>
+    <row r="28" spans="1:9" ht="14.5">
+      <c r="A28" s="108"/>
+      <c r="B28" s="124">
+        <v>3</v>
+      </c>
+      <c r="C28" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="40"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="G28" s="129"/>
+      <c r="H28" s="108"/>
+      <c r="I28" s="108"/>
+    </row>
+    <row r="29" spans="1:9" ht="14.5">
+      <c r="A29" s="108"/>
+      <c r="B29" s="124"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="82"/>
+      <c r="H29" s="108"/>
+      <c r="I29" s="108"/>
+    </row>
+    <row r="30" spans="1:9" ht="14.5">
+      <c r="A30" s="108"/>
+      <c r="B30" s="97" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="108"/>
+      <c r="I30" s="108"/>
+    </row>
+    <row r="31" spans="1:9" ht="28.5">
+      <c r="A31" s="108"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="101" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="101" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="101" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" s="101" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="108"/>
+      <c r="I31" s="108"/>
+    </row>
+    <row r="32" spans="1:9" ht="14.5">
+      <c r="A32" s="108"/>
+      <c r="B32" s="102"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="108"/>
+      <c r="I32" s="108"/>
+    </row>
+    <row r="33" spans="1:9" ht="14.5">
+      <c r="A33" s="108"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="104"/>
+      <c r="G33" s="104"/>
+      <c r="H33" s="108"/>
+      <c r="I33" s="108"/>
+    </row>
+    <row r="34" spans="1:9" ht="14.5">
+      <c r="A34" s="108"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="104"/>
+      <c r="H34" s="108"/>
+      <c r="I34" s="108"/>
+    </row>
+    <row r="35" spans="1:9" ht="14.5">
+      <c r="A35" s="108"/>
+      <c r="B35" s="130"/>
+      <c r="C35" s="131"/>
+      <c r="D35" s="132"/>
+      <c r="E35" s="132"/>
+      <c r="F35" s="132"/>
+      <c r="G35" s="132"/>
+      <c r="H35" s="108"/>
+      <c r="I35" s="108"/>
+    </row>
+    <row r="36" spans="1:9" ht="14.5">
+      <c r="A36" s="108"/>
+      <c r="B36" s="133" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="111"/>
+      <c r="D36" s="111"/>
+      <c r="E36" s="111"/>
+      <c r="F36" s="111"/>
+      <c r="G36" s="112"/>
+      <c r="H36" s="108"/>
+      <c r="I36" s="108"/>
+    </row>
+    <row r="37" spans="1:9" ht="14.5">
+      <c r="A37" s="108"/>
+      <c r="B37" s="134" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="116"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="116"/>
+      <c r="F37" s="116"/>
+      <c r="G37" s="117"/>
+      <c r="H37" s="108"/>
+      <c r="I37" s="108"/>
+    </row>
+    <row r="38" spans="1:9" ht="14.5">
+      <c r="A38" s="108"/>
+      <c r="B38" s="135"/>
+      <c r="C38" s="136" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="136" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="136" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="136" t="s">
+        <v>75</v>
+      </c>
+      <c r="G38" s="136"/>
+      <c r="H38" s="108"/>
+      <c r="I38" s="108"/>
+    </row>
+    <row r="39" spans="1:9" ht="14.5">
+      <c r="A39" s="108"/>
+      <c r="B39" s="130"/>
+      <c r="C39" s="131"/>
+      <c r="D39" s="132">
+        <v>2</v>
+      </c>
+      <c r="E39" s="132"/>
+      <c r="F39" s="132"/>
+      <c r="G39" s="132"/>
+      <c r="H39" s="108"/>
+      <c r="I39" s="108"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51602AB-7E74-4E62-BA60-BB6F9C320197}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:I40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="3.7265625" style="109" customWidth="1"/>
+    <col min="2" max="2" width="5" style="109" customWidth="1"/>
+    <col min="3" max="3" width="30.90625" style="109" customWidth="1"/>
+    <col min="4" max="4" width="25.7265625" style="109" customWidth="1"/>
+    <col min="5" max="5" width="30.90625" style="109" customWidth="1"/>
+    <col min="6" max="6" width="36.36328125" style="109" customWidth="1"/>
+    <col min="7" max="7" width="60.08984375" style="109" customWidth="1"/>
+    <col min="8" max="16384" width="12.6328125" style="109"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A1" s="105"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A2" s="108"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A3" s="108"/>
+      <c r="B3" s="113" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A4" s="108"/>
+      <c r="B4" s="113" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A5" s="108"/>
+      <c r="B5" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A6" s="108"/>
+      <c r="B6" s="113" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A7" s="108"/>
+      <c r="B7" s="115" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A8" s="108"/>
+      <c r="B8" s="118" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="119" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="119" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="119" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="119" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A9" s="108"/>
+      <c r="B9" s="118">
+        <v>1</v>
+      </c>
+      <c r="C9" s="82" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="120" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="120"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.5">
+      <c r="A10" s="108"/>
+      <c r="B10" s="118">
+        <v>2</v>
+      </c>
+      <c r="C10" s="82" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="120" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="120"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.5">
+      <c r="A11" s="108"/>
+      <c r="B11" s="118">
+        <v>3</v>
+      </c>
+      <c r="C11" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="120" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="120"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.5">
+      <c r="A12" s="108"/>
+      <c r="B12" s="121" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+    </row>
+    <row r="13" spans="1:9" ht="28.5">
+      <c r="A13" s="108"/>
+      <c r="B13" s="122" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="101" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="101" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="101" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="123" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="99"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.5">
+      <c r="A14" s="108"/>
+      <c r="B14" s="124">
+        <v>1</v>
+      </c>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.5">
+      <c r="A15" s="108"/>
+      <c r="B15" s="124">
+        <v>2</v>
+      </c>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
+    </row>
+    <row r="16" spans="1:9" ht="14.5">
+      <c r="A16" s="108"/>
+      <c r="B16" s="124">
+        <v>3</v>
+      </c>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.5">
+      <c r="A17" s="108"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="108"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.5">
+      <c r="A18" s="108"/>
+      <c r="B18" s="97" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="126"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="108"/>
+    </row>
+    <row r="19" spans="1:9" ht="28.5">
+      <c r="A19" s="108"/>
+      <c r="B19" s="122" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="123" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="99"/>
+      <c r="F19" s="101" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="108"/>
+      <c r="I19" s="127"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.5">
+      <c r="A20" s="108"/>
+      <c r="B20" s="124">
+        <v>1</v>
+      </c>
+      <c r="C20" s="82"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="127"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.5">
+      <c r="A21" s="108"/>
+      <c r="B21" s="124">
+        <v>2</v>
+      </c>
+      <c r="C21" s="82"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="127"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.5">
+      <c r="A22" s="108"/>
+      <c r="B22" s="124">
+        <v>3</v>
+      </c>
+      <c r="C22" s="82"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="127"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.5">
+      <c r="A23" s="108"/>
+      <c r="B23" s="124">
+        <v>4</v>
+      </c>
+      <c r="C23" s="82"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="127"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.5">
+      <c r="A24" s="108"/>
+      <c r="B24" s="97" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="127"/>
+    </row>
+    <row r="25" spans="1:9" ht="14.5">
+      <c r="A25" s="108"/>
+      <c r="B25" s="122" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="101" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="101" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="101"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="108"/>
+    </row>
+    <row r="26" spans="1:9" ht="14.5">
+      <c r="A26" s="108"/>
+      <c r="B26" s="124">
+        <v>1</v>
+      </c>
+      <c r="C26" s="82"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="108"/>
+    </row>
+    <row r="27" spans="1:9" ht="14.5">
+      <c r="A27" s="108"/>
+      <c r="B27" s="124">
+        <v>2</v>
+      </c>
+      <c r="C27" s="82"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="108"/>
+      <c r="I27" s="108"/>
+    </row>
+    <row r="28" spans="1:9" ht="14.5">
+      <c r="A28" s="108"/>
+      <c r="B28" s="124">
+        <v>3</v>
+      </c>
+      <c r="C28" s="82"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="129"/>
+      <c r="H28" s="108"/>
+      <c r="I28" s="108"/>
+    </row>
+    <row r="29" spans="1:9" ht="14.5">
+      <c r="A29" s="108"/>
+      <c r="B29" s="124">
+        <v>4</v>
+      </c>
+      <c r="C29" s="82"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="82"/>
+      <c r="H29" s="108"/>
+      <c r="I29" s="108"/>
+    </row>
+    <row r="30" spans="1:9" ht="14.5">
+      <c r="A30" s="108"/>
+      <c r="B30" s="124"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="H30" s="108"/>
+      <c r="I30" s="108"/>
+    </row>
+    <row r="31" spans="1:9" ht="14.5">
+      <c r="A31" s="108"/>
+      <c r="B31" s="97" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="98"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="108"/>
+      <c r="I31" s="108"/>
+    </row>
+    <row r="32" spans="1:9" ht="28.5">
+      <c r="A32" s="108"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="101" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="101" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="101" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="101" t="s">
+        <v>69</v>
+      </c>
+      <c r="G32" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="108"/>
+      <c r="I32" s="108"/>
+    </row>
+    <row r="33" spans="1:9" ht="14.5">
+      <c r="A33" s="108"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="104"/>
+      <c r="G33" s="104"/>
+      <c r="H33" s="108"/>
+      <c r="I33" s="108"/>
+    </row>
+    <row r="34" spans="1:9" ht="14.5">
+      <c r="A34" s="108"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="104"/>
+      <c r="H34" s="108"/>
+      <c r="I34" s="108"/>
+    </row>
+    <row r="35" spans="1:9" ht="14.5">
+      <c r="A35" s="108"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="104"/>
+      <c r="H35" s="108"/>
+      <c r="I35" s="108"/>
+    </row>
+    <row r="36" spans="1:9" ht="14.5">
+      <c r="A36" s="108"/>
+      <c r="B36" s="130"/>
+      <c r="C36" s="131"/>
+      <c r="D36" s="132"/>
+      <c r="E36" s="132"/>
+      <c r="F36" s="132"/>
+      <c r="G36" s="132"/>
+      <c r="H36" s="108"/>
+      <c r="I36" s="108"/>
+    </row>
+    <row r="37" spans="1:9" ht="14.5">
+      <c r="A37" s="108"/>
+      <c r="B37" s="133" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="111"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="111"/>
+      <c r="F37" s="111"/>
+      <c r="G37" s="112"/>
+      <c r="H37" s="108"/>
+      <c r="I37" s="108"/>
+    </row>
+    <row r="38" spans="1:9" ht="14.5">
+      <c r="A38" s="108"/>
+      <c r="B38" s="134" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="116"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="116"/>
+      <c r="F38" s="116"/>
+      <c r="G38" s="117"/>
+      <c r="H38" s="108"/>
+      <c r="I38" s="108"/>
+    </row>
+    <row r="39" spans="1:9" ht="14.5">
+      <c r="A39" s="108"/>
+      <c r="B39" s="135"/>
+      <c r="C39" s="136" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="136" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" s="136" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" s="136" t="s">
+        <v>75</v>
+      </c>
+      <c r="G39" s="136"/>
+      <c r="H39" s="108"/>
+      <c r="I39" s="108"/>
+    </row>
+    <row r="40" spans="1:9" ht="14.5">
+      <c r="A40" s="108"/>
+      <c r="B40" s="130"/>
+      <c r="C40" s="131"/>
+      <c r="D40" s="132">
+        <v>2</v>
+      </c>
+      <c r="E40" s="132"/>
+      <c r="F40" s="132"/>
+      <c r="G40" s="132"/>
+      <c r="H40" s="108"/>
+      <c r="I40" s="108"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
@@ -3899,8 +4136,8 @@
   </sheetPr>
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D23" sqref="D23:E23"/>
     </sheetView>
   </sheetViews>
@@ -3916,9 +4153,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A1" s="54"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
+      <c r="A1" s="47"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
@@ -3928,64 +4165,64 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="12"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="12"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="57"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="46"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="12"/>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="57"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="46"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="12"/>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="57"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="46"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="57"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="46"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
     </row>
@@ -3994,11 +4231,11 @@
       <c r="B7" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="43"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="54"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
     </row>
@@ -4132,14 +4369,14 @@
     </row>
     <row r="14" spans="1:9" ht="14.5">
       <c r="A14" s="12"/>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="43"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
     </row>
@@ -4157,10 +4394,10 @@
       <c r="E15" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="51" t="s">
+      <c r="F15" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="41"/>
+      <c r="G15" s="43"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
     </row>
@@ -4176,10 +4413,10 @@
       <c r="E16" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="50" t="s">
+      <c r="F16" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="41"/>
+      <c r="G16" s="43"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
     </row>
@@ -4195,10 +4432,10 @@
       <c r="E17" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="50" t="s">
+      <c r="F17" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="41"/>
+      <c r="G17" s="43"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
     </row>
@@ -4214,10 +4451,10 @@
       <c r="E18" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="50" t="s">
+      <c r="F18" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="41"/>
+      <c r="G18" s="43"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
     </row>
@@ -4227,20 +4464,20 @@
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="41"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="43"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9" ht="14.5">
       <c r="A20" s="12"/>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="41"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="43"/>
       <c r="G20" s="23"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
@@ -4253,10 +4490,10 @@
       <c r="C21" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="41"/>
+      <c r="E21" s="43"/>
       <c r="F21" s="21" t="s">
         <v>41</v>
       </c>
@@ -4274,10 +4511,10 @@
       <c r="C22" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="41"/>
+      <c r="E22" s="43"/>
       <c r="F22" s="17" t="s">
         <v>44</v>
       </c>
@@ -4293,10 +4530,10 @@
       <c r="C23" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="41"/>
+      <c r="E23" s="43"/>
       <c r="F23" s="17" t="s">
         <v>47</v>
       </c>
@@ -4314,10 +4551,10 @@
       <c r="C24" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="50" t="s">
+      <c r="D24" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="41"/>
+      <c r="E24" s="43"/>
       <c r="F24" s="17" t="s">
         <v>51</v>
       </c>
@@ -4333,8 +4570,8 @@
         <v>4</v>
       </c>
       <c r="C25" s="15"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="43"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="54"/>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
       <c r="H25" s="12"/>
@@ -4342,14 +4579,14 @@
     </row>
     <row r="26" spans="1:9" ht="15.5">
       <c r="A26" s="12"/>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="41"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="43"/>
       <c r="H26" s="12"/>
       <c r="I26" s="24"/>
     </row>
@@ -4471,14 +4708,14 @@
     </row>
     <row r="33" spans="1:9" ht="14.5">
       <c r="A33" s="12"/>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="41"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="43"/>
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
     </row>
@@ -4549,27 +4786,27 @@
     </row>
     <row r="39" spans="1:9" ht="14.5">
       <c r="A39" s="12"/>
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="47"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="50"/>
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
     </row>
     <row r="40" spans="1:9" ht="14.5">
       <c r="A40" s="12"/>
-      <c r="B40" s="48" t="s">
+      <c r="B40" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="43"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="54"/>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
     </row>
@@ -4607,21 +4844,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B39:G39"/>
     <mergeCell ref="B40:G40"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
@@ -4630,6 +4852,21 @@
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="B26:G26"/>
     <mergeCell ref="B33:G33"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
